--- a/report/IPB1-3-SRI-IPB2-DC01102017.xlsx
+++ b/report/IPB1-3-SRI-IPB2-DC01102017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2895" yWindow="-270" windowWidth="29385" windowHeight="11865" tabRatio="862" activeTab="12"/>
+    <workbookView xWindow="-2895" yWindow="-270" windowWidth="29385" windowHeight="11865" tabRatio="862" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary (2)" sheetId="43" r:id="rId1"/>
@@ -679,11 +679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346360064"/>
-        <c:axId val="346360640"/>
+        <c:axId val="356321536"/>
+        <c:axId val="356322112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346360064"/>
+        <c:axId val="356321536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -708,19 +708,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346360640"/>
+        <c:crossAx val="356322112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346360640"/>
+        <c:axId val="356322112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346360064"/>
+        <c:crossAx val="356321536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1100,11 +1099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347631552"/>
-        <c:axId val="347632128"/>
+        <c:axId val="357593024"/>
+        <c:axId val="357593600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347631552"/>
+        <c:axId val="357593024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -1117,12 +1116,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347632128"/>
+        <c:crossAx val="357593600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347632128"/>
+        <c:axId val="357593600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1135,7 +1134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347631552"/>
+        <c:crossAx val="357593024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1496,11 +1495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347634432"/>
-        <c:axId val="347635008"/>
+        <c:axId val="357595904"/>
+        <c:axId val="357596480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347634432"/>
+        <c:axId val="357595904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1513,12 +1512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347635008"/>
+        <c:crossAx val="357596480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347635008"/>
+        <c:axId val="357596480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.65000000000000013"/>
@@ -1531,7 +1530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347634432"/>
+        <c:crossAx val="357595904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1793,11 +1792,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347817664"/>
-        <c:axId val="347818240"/>
+        <c:axId val="357762752"/>
+        <c:axId val="357763328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347817664"/>
+        <c:axId val="357762752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -1810,12 +1809,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347818240"/>
+        <c:crossAx val="357763328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347818240"/>
+        <c:axId val="357763328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,14 +1825,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347817664"/>
+        <c:crossAx val="357762752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1967,22 +1965,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$W$5:$W$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.3283086551723997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.288039931034497</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1653001034481996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3885655862069015</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2050,28 +2032,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$AA$5:$AA$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.971327310344801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8520063448276005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7796894137931005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1728630344828019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0998834482759037</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4244748620689975</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2139,34 +2099,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$K$5:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.8708603793103391</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5341943793103994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5097318275862008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8131482068965994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6957906206896034</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0291406551723981</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9299189310344005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8249447931034979</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2309,34 +2241,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$C$5:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.21683417769822552</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23990796659936436</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26556424784909383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29548568414312776</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33200711068280203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35671212414333325</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37840197488685567</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39365167202697293</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2394,34 +2298,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$G$5:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.18945779348639033</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19226157267412095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19749510226455921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20869283101844485</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22305973212779606</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23444648346462127</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24539672946377336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25524770281337622</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2434,11 +2310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347821120"/>
-        <c:axId val="347821696"/>
+        <c:axId val="357766208"/>
+        <c:axId val="357766784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347821120"/>
+        <c:axId val="357766208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -2463,18 +2339,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347821696"/>
+        <c:crossAx val="357766784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347821696"/>
+        <c:axId val="357766784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.35000000000000003"/>
@@ -2513,7 +2390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347821120"/>
+        <c:crossAx val="357766208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2627,34 +2504,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$K$5:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.8708603793103391</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5341943793103994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5097318275862008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8131482068965994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6957906206896034</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0291406551723981</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9299189310344005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8249447931034979</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -2752,11 +2601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346652672"/>
-        <c:axId val="346653248"/>
+        <c:axId val="356614144"/>
+        <c:axId val="356614720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346652672"/>
+        <c:axId val="356614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -2781,18 +2630,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346653248"/>
+        <c:crossAx val="356614720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346653248"/>
+        <c:axId val="356614720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.35000000000000003"/>
@@ -2831,7 +2681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346652672"/>
+        <c:crossAx val="356614144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2971,34 +2821,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$C$5:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.21683417769822552</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23990796659936436</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26556424784909383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29548568414312776</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33200711068280203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35671212414333325</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37840197488685567</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39365167202697293</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3056,34 +2878,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$G$5:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.18945779348639033</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19226157267412095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19749510226455921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20869283101844485</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22305973212779606</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23444648346462127</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24539672946377336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25524770281337622</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3096,11 +2890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346655552"/>
-        <c:axId val="346656128"/>
+        <c:axId val="356617024"/>
+        <c:axId val="356617600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346655552"/>
+        <c:axId val="356617024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3125,18 +2919,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346656128"/>
+        <c:crossAx val="356617600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346656128"/>
+        <c:axId val="356617600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.35000000000000003"/>
@@ -3175,7 +2970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346655552"/>
+        <c:crossAx val="356617024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3286,34 +3081,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$D$5:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.1476318851809051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.065193379370438</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9637956379557844</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.838059661380641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7666661555213297</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6363251723562331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5611451756504382</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4896264260055765</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3378,34 +3145,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$H$5:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.342853354974674</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4284130162755164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.484995661162102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.461623112138966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.463928122417574</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4048769627127964</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3784418203073119</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2597861887673223</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3418,11 +3157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346658432"/>
-        <c:axId val="346659008"/>
+        <c:axId val="356619904"/>
+        <c:axId val="356620480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346658432"/>
+        <c:axId val="356619904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -3435,12 +3174,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346659008"/>
+        <c:crossAx val="356620480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346659008"/>
+        <c:axId val="356620480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,13 +3190,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346658432"/>
+        <c:crossAx val="356619904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3555,34 +3295,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$L$5:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.33572677575832355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4832945508532802E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9558468142950627E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1662998594793841E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7635402471241513E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8906340411026576E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7410825350678856E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8457894453908246E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3651,28 +3363,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-5.7981067811558873E-3</c:v>
+                  <c:v>3.1497467975423681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9358682995157821E-2</c:v>
+                  <c:v>3.1227849904414846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0101523819701583E-2</c:v>
+                  <c:v>3.1348511233503324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0992591264808382E-2</c:v>
+                  <c:v>3.0358305845820124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6807077853681296E-2</c:v>
+                  <c:v>2.9841252314746822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3539119184982091E-2</c:v>
+                  <c:v>2.8398574671818286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5744028298318788E-2</c:v>
+                  <c:v>2.7380287924753932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3986400675834822E-2</c:v>
+                  <c:v>2.6210419692951126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3687,11 +3399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348480064"/>
-        <c:axId val="348480640"/>
+        <c:axId val="358425152"/>
+        <c:axId val="358425728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348480064"/>
+        <c:axId val="358425152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -3704,12 +3416,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348480640"/>
+        <c:crossAx val="358425728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348480640"/>
+        <c:axId val="358425728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3720,7 +3432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348480064"/>
+        <c:crossAx val="358425152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3834,22 +3546,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$X$5:$X$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.7985929751650076E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0573467982744127E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.554615070720434E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6572431534710681E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3914,28 +3610,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$AB$5:$AB$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.26578117267334411</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0682082061018576E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4012764192393981E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8908198553733833E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.8302088345127085E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10207189520179138</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3948,11 +3622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348482944"/>
-        <c:axId val="348483520"/>
+        <c:axId val="358428032"/>
+        <c:axId val="358428608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348482944"/>
+        <c:axId val="358428032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -3965,12 +3639,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348483520"/>
+        <c:crossAx val="358428608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348483520"/>
+        <c:axId val="358428608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +3655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348482944"/>
+        <c:crossAx val="358428032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4085,34 +3759,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$E$5:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.49237322449249848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.51840987268303218</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54061033348291898</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56114764573201159</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59187924677474779</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.59826896815946584</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60183554391213145</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.59216594053938487</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -4170,34 +3816,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$I$5:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.44881061302207997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46938691769322877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49891576810466204</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52330050785206739</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55901216171361456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57669088198171503</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59391537214541223</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.58509112669998686</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -4210,11 +3828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348485824"/>
-        <c:axId val="348486400"/>
+        <c:axId val="358430912"/>
+        <c:axId val="358431488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348485824"/>
+        <c:axId val="358430912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -4239,18 +3857,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348486400"/>
+        <c:crossAx val="358431488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348486400"/>
+        <c:axId val="358431488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -4262,7 +3881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348485824"/>
+        <c:crossAx val="358430912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4527,11 +4146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346362944"/>
-        <c:axId val="346363520"/>
+        <c:axId val="356324416"/>
+        <c:axId val="356324992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346362944"/>
+        <c:axId val="356324416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -4556,19 +4175,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346363520"/>
+        <c:crossAx val="356324992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346363520"/>
+        <c:axId val="356324992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4605,7 +4223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346362944"/>
+        <c:crossAx val="356324416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4719,34 +4337,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$L$5:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.33572677575832355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4832945508532802E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9558468142950627E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1662998594793841E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7635402471241513E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8906340411026576E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7410825350678856E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8457894453908246E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -4815,28 +4405,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-5.7981067811558873E-3</c:v>
+                  <c:v>3.1497467975423681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9358682995157821E-2</c:v>
+                  <c:v>3.1227849904414846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0101523819701583E-2</c:v>
+                  <c:v>3.1348511233503324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0992591264808382E-2</c:v>
+                  <c:v>3.0358305845820124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6807077853681296E-2</c:v>
+                  <c:v>2.9841252314746822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3539119184982091E-2</c:v>
+                  <c:v>2.8398574671818286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5744028298318788E-2</c:v>
+                  <c:v>2.7380287924753932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3986400675834822E-2</c:v>
+                  <c:v>2.6210419692951126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4906,22 +4496,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$X$5:$X$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.7985929751650076E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0573467982744127E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.554615070720434E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6572431534710681E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -4986,28 +4560,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$AB$5:$AB$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.26578117267334411</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0682082061018576E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4012764192393981E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8908198553733833E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.8302088345127085E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10207189520179138</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -5020,11 +4572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349070464"/>
-        <c:axId val="349071040"/>
+        <c:axId val="359031936"/>
+        <c:axId val="359032512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349070464"/>
+        <c:axId val="359031936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -5037,12 +4589,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349071040"/>
+        <c:crossAx val="359032512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349071040"/>
+        <c:axId val="359032512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,7 +4605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349070464"/>
+        <c:crossAx val="359031936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5354,34 +4906,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$L$5:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.33572677575832355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4832945508532802E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9558468142950627E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1662998594793841E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7635402471241513E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8906340411026576E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7410825350678856E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8457894453908246E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -5460,28 +4984,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-5.7981067811558873E-3</c:v>
+                  <c:v>3.1497467975423681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9358682995157821E-2</c:v>
+                  <c:v>3.1227849904414846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0101523819701583E-2</c:v>
+                  <c:v>3.1348511233503324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0992591264808382E-2</c:v>
+                  <c:v>3.0358305845820124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6807077853681296E-2</c:v>
+                  <c:v>2.9841252314746822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3539119184982091E-2</c:v>
+                  <c:v>2.8398574671818286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5744028298318788E-2</c:v>
+                  <c:v>2.7380287924753932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3986400675834822E-2</c:v>
+                  <c:v>2.6210419692951126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5496,11 +5020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349073344"/>
-        <c:axId val="349073920"/>
+        <c:axId val="359034816"/>
+        <c:axId val="359035392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349073344"/>
+        <c:axId val="359034816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -5513,12 +5037,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349073920"/>
+        <c:crossAx val="359035392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349073920"/>
+        <c:axId val="359035392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5"/>
@@ -5531,7 +5055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349073344"/>
+        <c:crossAx val="359034816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5793,11 +5317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349076800"/>
-        <c:axId val="348995584"/>
+        <c:axId val="359038272"/>
+        <c:axId val="358891520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349076800"/>
+        <c:axId val="359038272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -5810,12 +5334,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348995584"/>
+        <c:crossAx val="358891520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348995584"/>
+        <c:axId val="358891520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5826,13 +5350,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349076800"/>
+        <c:crossAx val="359038272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6050,11 +5575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348997312"/>
-        <c:axId val="348997888"/>
+        <c:axId val="358893248"/>
+        <c:axId val="358893824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348997312"/>
+        <c:axId val="358893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -6067,12 +5592,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348997888"/>
+        <c:crossAx val="358893824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348997888"/>
+        <c:axId val="358893824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -6085,13 +5610,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348997312"/>
+        <c:crossAx val="358893248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6195,34 +5721,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$K$5:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.8708603793103391</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5341943793103994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5097318275862008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8131482068965994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6957906206896034</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0291406551723981</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9299189310344005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8249447931034979</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -6418,11 +5916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349000192"/>
-        <c:axId val="349000768"/>
+        <c:axId val="358896128"/>
+        <c:axId val="358896704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349000192"/>
+        <c:axId val="358896128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -6435,12 +5933,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349000768"/>
+        <c:crossAx val="358896704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349000768"/>
+        <c:axId val="358896704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -6453,7 +5951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349000192"/>
+        <c:crossAx val="358896128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6574,34 +6072,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>summary!$M$5:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>359</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -6814,11 +6284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349003072"/>
-        <c:axId val="349446144"/>
+        <c:axId val="358899008"/>
+        <c:axId val="359407616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349003072"/>
+        <c:axId val="358899008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -6831,12 +6301,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349446144"/>
+        <c:crossAx val="359407616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349446144"/>
+        <c:axId val="359407616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.65000000000000013"/>
@@ -6849,7 +6319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349003072"/>
+        <c:crossAx val="358899008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7111,11 +6581,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349448448"/>
-        <c:axId val="349449024"/>
+        <c:axId val="359409920"/>
+        <c:axId val="359410496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349448448"/>
+        <c:axId val="359409920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -7128,12 +6598,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349449024"/>
+        <c:crossAx val="359410496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349449024"/>
+        <c:axId val="359410496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7144,13 +6614,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349448448"/>
+        <c:crossAx val="359409920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7339,11 +6810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349451328"/>
-        <c:axId val="349451904"/>
+        <c:axId val="359412800"/>
+        <c:axId val="359413376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349451328"/>
+        <c:axId val="359412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7353,12 +6824,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349451904"/>
+        <c:crossAx val="359413376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="349451904"/>
+        <c:axId val="359413376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7369,7 +6840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349451328"/>
+        <c:crossAx val="359412800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7470,11 +6941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348151808"/>
-        <c:axId val="348152384"/>
+        <c:axId val="359414528"/>
+        <c:axId val="358113856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348151808"/>
+        <c:axId val="359414528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7484,12 +6955,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348152384"/>
+        <c:crossAx val="358113856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348152384"/>
+        <c:axId val="358113856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7500,7 +6971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348151808"/>
+        <c:crossAx val="359414528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7606,11 +7077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357446144"/>
-        <c:axId val="357445568"/>
+        <c:axId val="358115584"/>
+        <c:axId val="358116160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357446144"/>
+        <c:axId val="358115584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7620,12 +7091,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357445568"/>
+        <c:crossAx val="358116160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357445568"/>
+        <c:axId val="358116160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7636,7 +7107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357446144"/>
+        <c:crossAx val="358115584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7870,11 +7341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347283456"/>
-        <c:axId val="347284032"/>
+        <c:axId val="357244928"/>
+        <c:axId val="357245504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347283456"/>
+        <c:axId val="357244928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -7887,12 +7358,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347284032"/>
+        <c:crossAx val="357245504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347284032"/>
+        <c:axId val="357245504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7903,14 +7374,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347283456"/>
+        <c:crossAx val="357244928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8009,11 +7479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135309568"/>
-        <c:axId val="135308992"/>
+        <c:axId val="358117888"/>
+        <c:axId val="358118464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135309568"/>
+        <c:axId val="358117888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8023,12 +7493,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135308992"/>
+        <c:crossAx val="358118464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135308992"/>
+        <c:axId val="358118464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8039,7 +7509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135309568"/>
+        <c:crossAx val="358117888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8276,11 +7746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347286336"/>
-        <c:axId val="347286912"/>
+        <c:axId val="357247808"/>
+        <c:axId val="357248384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347286336"/>
+        <c:axId val="357247808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -8293,12 +7763,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347286912"/>
+        <c:crossAx val="357248384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347286912"/>
+        <c:axId val="357248384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8309,7 +7779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347286336"/>
+        <c:crossAx val="357247808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8537,11 +8007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347289216"/>
-        <c:axId val="347289792"/>
+        <c:axId val="357250688"/>
+        <c:axId val="357251264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347289216"/>
+        <c:axId val="357250688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -8554,12 +8024,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347289792"/>
+        <c:crossAx val="357251264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347289792"/>
+        <c:axId val="357251264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8570,7 +8040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347289216"/>
+        <c:crossAx val="357250688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8975,11 +8445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347488832"/>
-        <c:axId val="347489408"/>
+        <c:axId val="357433920"/>
+        <c:axId val="357434496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347488832"/>
+        <c:axId val="357433920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -8992,12 +8462,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347489408"/>
+        <c:crossAx val="357434496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347489408"/>
+        <c:axId val="357434496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9008,7 +8478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347488832"/>
+        <c:crossAx val="357433920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9451,11 +8921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347491712"/>
-        <c:axId val="347492288"/>
+        <c:axId val="357436800"/>
+        <c:axId val="357437376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347491712"/>
+        <c:axId val="357436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -9468,12 +8938,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347492288"/>
+        <c:crossAx val="357437376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347492288"/>
+        <c:axId val="357437376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9484,7 +8954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347491712"/>
+        <c:crossAx val="357436800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9746,11 +9216,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347494592"/>
-        <c:axId val="347495168"/>
+        <c:axId val="357439680"/>
+        <c:axId val="357440256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347494592"/>
+        <c:axId val="357439680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -9763,12 +9233,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347495168"/>
+        <c:crossAx val="357440256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347495168"/>
+        <c:axId val="357440256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9779,14 +9249,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347494592"/>
+        <c:crossAx val="357439680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10004,11 +9473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347628672"/>
-        <c:axId val="347629248"/>
+        <c:axId val="357590144"/>
+        <c:axId val="357590720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347628672"/>
+        <c:axId val="357590144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -10021,12 +9490,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347629248"/>
+        <c:crossAx val="357590720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347629248"/>
+        <c:axId val="357590720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -10039,14 +9508,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347628672"/>
+        <c:crossAx val="357590144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19912,7 +19380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
@@ -24284,7 +23752,7 @@
         <v>1.7687643103448014</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" ref="X4:X7" si="7">(J5-$J$2)-((P5-$P$2)+(Q5-$Q$2))/$X$2</f>
+        <f t="shared" ref="X5:X7" si="7">(J5-$J$2)-((P5-$P$2)+(Q5-$Q$2))/$X$2</f>
         <v>6.1061601740965159</v>
       </c>
       <c r="Y5" s="1">
@@ -34462,40 +33930,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU38"/>
+  <dimension ref="A1:AW38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV6" sqref="AV6:AV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="2" customWidth="1"/>
-    <col min="15" max="18" width="10.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="18" width="10.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="12" style="2" customWidth="1"/>
     <col min="21" max="21" width="14" style="2" customWidth="1"/>
     <col min="22" max="22" width="10.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14" style="2" customWidth="1"/>
-    <col min="26" max="27" width="10.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="14" style="2" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="14" style="2" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.85546875" style="2" customWidth="1"/>
     <col min="33" max="33" width="12.28515625" style="2" customWidth="1"/>
@@ -34503,7 +33970,7 @@
     <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="17" t="str">
         <f ca="1">'ipb1-29b-he'!A1</f>
         <v>ipb1-29b-he</v>
@@ -34681,7 +34148,7 @@
         <v>ipb3-32-h2-91ns</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
@@ -34752,7 +34219,7 @@
       <c r="AT2" s="16"/>
       <c r="AU2" s="16"/>
     </row>
-    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
@@ -34930,7 +34397,7 @@
         <v>intT/CoreT</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -35112,7 +34579,7 @@
         <v>ipb3-32-h2-91ns-intT/CoreT</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -35187,9 +34654,9 @@
         <f ca="1">INDIRECT("'"&amp;S$1&amp;"'!"&amp;"U"&amp;$A5)</f>
         <v>1.6570357241379403</v>
       </c>
-      <c r="T5" s="35">
-        <f ca="1">INDIRECT("'"&amp;T$1&amp;"'!"&amp;"W"&amp;$A5)</f>
-        <v>-5.7981067811558873E-3</v>
+      <c r="T5" s="34">
+        <f ca="1">INDIRECT("'"&amp;T$1&amp;"'!"&amp;"Z"&amp;$A5)</f>
+        <v>3.1497467975423681</v>
       </c>
       <c r="U5" s="35">
         <f ca="1">INDIRECT("'"&amp;U$1&amp;"'!"&amp;"S"&amp;$A5)</f>
@@ -35298,8 +34765,15 @@
         <f ca="1">INDIRECT("'"&amp;AU$1&amp;"'!"&amp;"AC"&amp;$AE5)</f>
         <v>0.86185159981036441</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV5" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AW5" s="2">
+        <f ca="1">AK5*AV5*S5-T5</f>
+        <v>2.382481399343872E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>8</v>
       </c>
@@ -35374,20 +34848,20 @@
         <f t="shared" ref="S6:S12" ca="1" si="45">INDIRECT("'"&amp;S$1&amp;"'!"&amp;"U"&amp;$A6)</f>
         <v>1.7315192758621016</v>
       </c>
-      <c r="T6" s="35">
-        <f t="shared" ref="T6:T12" ca="1" si="46">INDIRECT("'"&amp;T$1&amp;"'!"&amp;"W"&amp;$A6)</f>
-        <v>9.9358682995157821E-2</v>
+      <c r="T6" s="34">
+        <f ca="1">INDIRECT("'"&amp;T$1&amp;"'!"&amp;"Z"&amp;$A6)</f>
+        <v>3.1227849904414846</v>
       </c>
       <c r="U6" s="35">
-        <f t="shared" ref="U6:U12" ca="1" si="47">INDIRECT("'"&amp;U$1&amp;"'!"&amp;"S"&amp;$A6)</f>
+        <f t="shared" ref="U6:U12" ca="1" si="46">INDIRECT("'"&amp;U$1&amp;"'!"&amp;"S"&amp;$A6)</f>
         <v>359</v>
       </c>
       <c r="V6" s="35">
-        <f t="shared" ref="V6:V12" ca="1" si="48">INDIRECT("'"&amp;V$1&amp;"'!"&amp;"X"&amp;$A6)</f>
+        <f t="shared" ref="V6:V12" ca="1" si="47">INDIRECT("'"&amp;V$1&amp;"'!"&amp;"X"&amp;$A6)</f>
         <v>0.13155410981192761</v>
       </c>
       <c r="W6" s="34">
-        <f t="shared" ref="W6:W12" ca="1" si="49">INDIRECT("'"&amp;W$1&amp;"'!"&amp;"U"&amp;$A6)</f>
+        <f t="shared" ref="W6:W12" ca="1" si="48">INDIRECT("'"&amp;W$1&amp;"'!"&amp;"U"&amp;$A6)</f>
         <v>1.288039931034497</v>
       </c>
       <c r="X6" s="34">
@@ -35395,15 +34869,15 @@
         <v>9.0573467982744127E-2</v>
       </c>
       <c r="Y6" s="34">
-        <f t="shared" ref="Y6:Y12" ca="1" si="50">INDIRECT("'"&amp;Y$1&amp;"'!"&amp;"S"&amp;$A6)</f>
+        <f t="shared" ref="Y6:Y12" ca="1" si="49">INDIRECT("'"&amp;Y$1&amp;"'!"&amp;"S"&amp;$A6)</f>
         <v>359</v>
       </c>
       <c r="Z6" s="34">
-        <f t="shared" ref="Z6:Z8" ca="1" si="51">INDIRECT("'"&amp;Z$1&amp;"'!"&amp;"X"&amp;$A6)</f>
+        <f t="shared" ref="Z6:Z8" ca="1" si="50">INDIRECT("'"&amp;Z$1&amp;"'!"&amp;"X"&amp;$A6)</f>
         <v>0.23589009528313801</v>
       </c>
       <c r="AA6" s="35">
-        <f t="shared" ref="Z6:AA12" ca="1" si="52">INDIRECT("'"&amp;AA$1&amp;"'!"&amp;"U"&amp;$A6)</f>
+        <f t="shared" ref="Z6:AA12" ca="1" si="51">INDIRECT("'"&amp;AA$1&amp;"'!"&amp;"U"&amp;$A6)</f>
         <v>1.8520063448276005</v>
       </c>
       <c r="AB6" s="35">
@@ -35411,11 +34885,11 @@
         <v>9.0682082061018576E-2</v>
       </c>
       <c r="AC6" s="35">
-        <f t="shared" ref="AC6:AC12" ca="1" si="53">INDIRECT("'"&amp;AC$1&amp;"'!"&amp;"S"&amp;$A6)</f>
+        <f t="shared" ref="AC6:AC12" ca="1" si="52">INDIRECT("'"&amp;AC$1&amp;"'!"&amp;"S"&amp;$A6)</f>
         <v>360</v>
       </c>
       <c r="AD6" s="35">
-        <f t="shared" ref="AD6:AD12" ca="1" si="54">INDIRECT("'"&amp;AD$1&amp;"'!"&amp;"X"&amp;$A6)</f>
+        <f t="shared" ref="AD6:AD12" ca="1" si="53">INDIRECT("'"&amp;AD$1&amp;"'!"&amp;"X"&amp;$A6)</f>
         <v>0.1323510524329285</v>
       </c>
       <c r="AE6" s="2">
@@ -35423,71 +34897,78 @@
         <v>10</v>
       </c>
       <c r="AF6" s="34">
-        <f t="shared" ref="AF6:AF10" ca="1" si="55">INDIRECT("'"&amp;AF$1&amp;"'!"&amp;"AB"&amp;$AE6)</f>
+        <f t="shared" ref="AF6:AF10" ca="1" si="54">INDIRECT("'"&amp;AF$1&amp;"'!"&amp;"AB"&amp;$AE6)</f>
         <v>0.45051559853487683</v>
       </c>
       <c r="AG6" s="34">
-        <f t="shared" ref="AF6:AG12" ca="1" si="56">INDIRECT("'"&amp;AG$1&amp;"'!"&amp;"AA"&amp;$AE6)</f>
+        <f t="shared" ref="AF6:AG12" ca="1" si="55">INDIRECT("'"&amp;AG$1&amp;"'!"&amp;"AA"&amp;$AE6)</f>
         <v>0.98333307948114501</v>
       </c>
       <c r="AH6" s="34">
-        <f t="shared" ref="AH6:AH12" ca="1" si="57">INDIRECT("'"&amp;AH$1&amp;"'!"&amp;"V"&amp;$AE6)</f>
+        <f t="shared" ref="AH6:AH12" ca="1" si="56">INDIRECT("'"&amp;AH$1&amp;"'!"&amp;"V"&amp;$AE6)</f>
         <v>0.41362211116651193</v>
       </c>
       <c r="AI6" s="34">
-        <f t="shared" ref="AI6:AI10" ca="1" si="58">INDIRECT("'"&amp;AI$1&amp;"'!"&amp;"AC"&amp;$AE6)</f>
+        <f t="shared" ref="AI6:AI10" ca="1" si="57">INDIRECT("'"&amp;AI$1&amp;"'!"&amp;"AC"&amp;$AE6)</f>
         <v>0.9321958592423788</v>
       </c>
       <c r="AJ6" s="35">
-        <f t="shared" ref="AJ6:AJ10" ca="1" si="59">INDIRECT("'"&amp;AJ$1&amp;"'!"&amp;"AB"&amp;$AE6)</f>
+        <f t="shared" ref="AJ6:AJ10" ca="1" si="58">INDIRECT("'"&amp;AJ$1&amp;"'!"&amp;"AB"&amp;$AE6)</f>
         <v>0.34574244084078753</v>
       </c>
       <c r="AK6" s="35">
-        <f t="shared" ref="AJ6:AK12" ca="1" si="60">INDIRECT("'"&amp;AK$1&amp;"'!"&amp;"AA"&amp;$AE6)</f>
+        <f t="shared" ref="AJ6:AK12" ca="1" si="59">INDIRECT("'"&amp;AK$1&amp;"'!"&amp;"AA"&amp;$AE6)</f>
         <v>0.80947235610950219</v>
       </c>
       <c r="AL6" s="35">
-        <f t="shared" ref="AL6:AL12" ca="1" si="61">INDIRECT("'"&amp;AL$1&amp;"'!"&amp;"V"&amp;$AE6)</f>
+        <f t="shared" ref="AL6:AL12" ca="1" si="60">INDIRECT("'"&amp;AL$1&amp;"'!"&amp;"V"&amp;$AE6)</f>
         <v>0.34470766378654571</v>
       </c>
       <c r="AM6" s="35">
-        <f t="shared" ref="AM6:AM10" ca="1" si="62">INDIRECT("'"&amp;AM$1&amp;"'!"&amp;"AC"&amp;$AE6)</f>
+        <f t="shared" ref="AM6:AM10" ca="1" si="61">INDIRECT("'"&amp;AM$1&amp;"'!"&amp;"AC"&amp;$AE6)</f>
         <v>0.93252997708803564</v>
       </c>
       <c r="AN6" s="34">
-        <f t="shared" ref="AI6:AN12" ca="1" si="63">INDIRECT("'"&amp;AN$1&amp;"'!"&amp;"AB"&amp;$AE6)</f>
+        <f t="shared" ref="AI6:AN12" ca="1" si="62">INDIRECT("'"&amp;AN$1&amp;"'!"&amp;"AB"&amp;$AE6)</f>
         <v>0.11747526219184279</v>
       </c>
       <c r="AO6" s="34">
-        <f t="shared" ref="AN6:AO12" ca="1" si="64">INDIRECT("'"&amp;AO$1&amp;"'!"&amp;"AA"&amp;$AE6)</f>
+        <f t="shared" ref="AN6:AO12" ca="1" si="63">INDIRECT("'"&amp;AO$1&amp;"'!"&amp;"AA"&amp;$AE6)</f>
         <v>5.8839379386110169</v>
       </c>
       <c r="AP6" s="34">
-        <f t="shared" ref="AP6:AP12" ca="1" si="65">INDIRECT("'"&amp;AP$1&amp;"'!"&amp;"V"&amp;$AE6)</f>
+        <f t="shared" ref="AP6:AP12" ca="1" si="64">INDIRECT("'"&amp;AP$1&amp;"'!"&amp;"V"&amp;$AE6)</f>
         <v>0.84287729014360202</v>
       </c>
       <c r="AQ6" s="34">
-        <f t="shared" ref="AQ6:AQ10" ca="1" si="66">INDIRECT("'"&amp;AQ$1&amp;"'!"&amp;"AC"&amp;$AE6)</f>
+        <f t="shared" ref="AQ6:AQ10" ca="1" si="65">INDIRECT("'"&amp;AQ$1&amp;"'!"&amp;"AC"&amp;$AE6)</f>
         <v>0.87652825927373346</v>
       </c>
       <c r="AR6" s="35">
-        <f t="shared" ref="AR6:AR10" ca="1" si="67">INDIRECT("'"&amp;AR$1&amp;"'!"&amp;"AB"&amp;$AE6)</f>
+        <f t="shared" ref="AR6:AR10" ca="1" si="66">INDIRECT("'"&amp;AR$1&amp;"'!"&amp;"AB"&amp;$AE6)</f>
         <v>0.10616811687622921</v>
       </c>
       <c r="AS6" s="35">
-        <f t="shared" ref="AR6:AS12" ca="1" si="68">INDIRECT("'"&amp;AS$1&amp;"'!"&amp;"AA"&amp;$AE6)</f>
+        <f t="shared" ref="AR6:AS12" ca="1" si="67">INDIRECT("'"&amp;AS$1&amp;"'!"&amp;"AA"&amp;$AE6)</f>
         <v>5.0575484203024139</v>
       </c>
       <c r="AT6" s="35">
-        <f t="shared" ref="AT6:AT12" ca="1" si="69">INDIRECT("'"&amp;AT$1&amp;"'!"&amp;"V"&amp;$AE6)</f>
+        <f t="shared" ref="AT6:AT12" ca="1" si="68">INDIRECT("'"&amp;AT$1&amp;"'!"&amp;"V"&amp;$AE6)</f>
         <v>0.80076454353860482</v>
       </c>
       <c r="AU6" s="35">
-        <f t="shared" ref="AU6:AU10" ca="1" si="70">INDIRECT("'"&amp;AU$1&amp;"'!"&amp;"AC"&amp;$AE6)</f>
+        <f t="shared" ref="AU6:AU10" ca="1" si="69">INDIRECT("'"&amp;AU$1&amp;"'!"&amp;"AC"&amp;$AE6)</f>
         <v>0.867174210921418</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AW6" s="2">
+        <f ca="1">AK6*AV6*S6-T6</f>
+        <v>0.38125747926130149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>13</v>
       </c>
@@ -35562,20 +35043,20 @@
         <f t="shared" ca="1" si="45"/>
         <v>1.6925251034483004</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="34">
+        <f t="shared" ref="T7:T12" ca="1" si="70">INDIRECT("'"&amp;T$1&amp;"'!"&amp;"Z"&amp;$A7)</f>
+        <v>3.1348511233503324</v>
+      </c>
+      <c r="U7" s="35">
         <f t="shared" ca="1" si="46"/>
-        <v>7.0101523819701583E-2</v>
-      </c>
-      <c r="U7" s="35">
+        <v>359</v>
+      </c>
+      <c r="V7" s="35">
         <f t="shared" ca="1" si="47"/>
-        <v>359</v>
-      </c>
-      <c r="V7" s="35">
+        <v>0.14417970292383503</v>
+      </c>
+      <c r="W7" s="34">
         <f t="shared" ca="1" si="48"/>
-        <v>0.14417970292383503</v>
-      </c>
-      <c r="W7" s="34">
-        <f t="shared" ca="1" si="49"/>
         <v>1.1653001034481996</v>
       </c>
       <c r="X7" s="34">
@@ -35583,15 +35064,15 @@
         <v>2.554615070720434E-2</v>
       </c>
       <c r="Y7" s="34">
+        <f t="shared" ca="1" si="49"/>
+        <v>359</v>
+      </c>
+      <c r="Z7" s="34">
         <f t="shared" ca="1" si="50"/>
-        <v>359</v>
-      </c>
-      <c r="Z7" s="34">
+        <v>0.26431942423004151</v>
+      </c>
+      <c r="AA7" s="35">
         <f t="shared" ca="1" si="51"/>
-        <v>0.26431942423004151</v>
-      </c>
-      <c r="AA7" s="35">
-        <f t="shared" ca="1" si="52"/>
         <v>1.7796894137931005</v>
       </c>
       <c r="AB7" s="35">
@@ -35599,11 +35080,11 @@
         <v>5.4012764192393981E-2</v>
       </c>
       <c r="AC7" s="35">
+        <f t="shared" ca="1" si="52"/>
+        <v>359</v>
+      </c>
+      <c r="AD7" s="35">
         <f t="shared" ca="1" si="53"/>
-        <v>359</v>
-      </c>
-      <c r="AD7" s="35">
-        <f t="shared" ca="1" si="54"/>
         <v>0.14627471126836214</v>
       </c>
       <c r="AE7" s="2">
@@ -35611,71 +35092,78 @@
         <v>17</v>
       </c>
       <c r="AF7" s="34">
+        <f t="shared" ca="1" si="54"/>
+        <v>0.45954751716538478</v>
+      </c>
+      <c r="AG7" s="34">
         <f t="shared" ca="1" si="55"/>
-        <v>0.45954751716538478</v>
-      </c>
-      <c r="AG7" s="34">
+        <v>1.0494792965782085</v>
+      </c>
+      <c r="AH7" s="34">
         <f t="shared" ca="1" si="56"/>
-        <v>1.0494792965782085</v>
-      </c>
-      <c r="AH7" s="34">
+        <v>0.47976826795010635</v>
+      </c>
+      <c r="AI7" s="34">
         <f t="shared" ca="1" si="57"/>
-        <v>0.47976826795010635</v>
-      </c>
-      <c r="AI7" s="34">
+        <v>0.92947218564509215</v>
+      </c>
+      <c r="AJ7" s="35">
         <f t="shared" ca="1" si="58"/>
-        <v>0.92947218564509215</v>
-      </c>
-      <c r="AJ7" s="35">
+        <v>0.44691311385626531</v>
+      </c>
+      <c r="AK7" s="35">
         <f t="shared" ca="1" si="59"/>
-        <v>0.44691311385626531</v>
-      </c>
-      <c r="AK7" s="35">
+        <v>1.0250702745535663</v>
+      </c>
+      <c r="AL7" s="35">
         <f t="shared" ca="1" si="60"/>
-        <v>1.0250702745535663</v>
-      </c>
-      <c r="AL7" s="35">
+        <v>0.44963711202912482</v>
+      </c>
+      <c r="AM7" s="35">
         <f t="shared" ca="1" si="61"/>
-        <v>0.44963711202912482</v>
-      </c>
-      <c r="AM7" s="35">
+        <v>0.92978578317903737</v>
+      </c>
+      <c r="AN7" s="34">
         <f t="shared" ca="1" si="62"/>
-        <v>0.92978578317903737</v>
-      </c>
-      <c r="AN7" s="34">
+        <v>0.31700121573943219</v>
+      </c>
+      <c r="AO7" s="34">
         <f t="shared" ca="1" si="63"/>
-        <v>0.31700121573943219</v>
-      </c>
-      <c r="AO7" s="34">
+        <v>4.9426631753240224</v>
+      </c>
+      <c r="AP7" s="34">
         <f t="shared" ca="1" si="64"/>
-        <v>4.9426631753240224</v>
-      </c>
-      <c r="AP7" s="34">
+        <v>0.86291163890625378</v>
+      </c>
+      <c r="AQ7" s="34">
         <f t="shared" ca="1" si="65"/>
-        <v>0.86291163890625378</v>
-      </c>
-      <c r="AQ7" s="34">
+        <v>0.87707958708840061</v>
+      </c>
+      <c r="AR7" s="35">
         <f t="shared" ca="1" si="66"/>
-        <v>0.87707958708840061</v>
-      </c>
-      <c r="AR7" s="35">
+        <v>0.15365129258758198</v>
+      </c>
+      <c r="AS7" s="35">
         <f t="shared" ca="1" si="67"/>
-        <v>0.15365129258758198</v>
-      </c>
-      <c r="AS7" s="35">
+        <v>4.3314624209429313</v>
+      </c>
+      <c r="AT7" s="35">
         <f t="shared" ca="1" si="68"/>
-        <v>4.3314624209429313</v>
-      </c>
-      <c r="AT7" s="35">
+        <v>0.83258602129150061</v>
+      </c>
+      <c r="AU7" s="35">
         <f t="shared" ca="1" si="69"/>
-        <v>0.83258602129150061</v>
-      </c>
-      <c r="AU7" s="35">
-        <f t="shared" ca="1" si="70"/>
         <v>0.86941007297481177</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AW7" s="2">
+        <f t="shared" ref="AW6:AW12" ca="1" si="73">AK7*AV7*S7-T7</f>
+        <v>1.2025418078510488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>18</v>
       </c>
@@ -35750,20 +35238,20 @@
         <f t="shared" ca="1" si="45"/>
         <v>2.1048925517241024</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="34">
+        <f t="shared" ca="1" si="70"/>
+        <v>3.0358305845820124</v>
+      </c>
+      <c r="U8" s="35">
         <f t="shared" ca="1" si="46"/>
-        <v>6.0992591264808382E-2</v>
-      </c>
-      <c r="U8" s="35">
+        <v>359</v>
+      </c>
+      <c r="V8" s="35">
         <f t="shared" ca="1" si="47"/>
-        <v>359</v>
-      </c>
-      <c r="V8" s="35">
+        <v>0.1594005709681188</v>
+      </c>
+      <c r="W8" s="34">
         <f t="shared" ca="1" si="48"/>
-        <v>0.1594005709681188</v>
-      </c>
-      <c r="W8" s="34">
-        <f t="shared" ca="1" si="49"/>
         <v>1.3885655862069015</v>
       </c>
       <c r="X8" s="34">
@@ -35771,15 +35259,15 @@
         <v>3.6572431534710681E-2</v>
       </c>
       <c r="Y8" s="34">
+        <f t="shared" ca="1" si="49"/>
+        <v>359</v>
+      </c>
+      <c r="Z8" s="34">
         <f t="shared" ca="1" si="50"/>
-        <v>359</v>
-      </c>
-      <c r="Z8" s="34">
+        <v>0.29787621528147962</v>
+      </c>
+      <c r="AA8" s="35">
         <f t="shared" ca="1" si="51"/>
-        <v>0.29787621528147962</v>
-      </c>
-      <c r="AA8" s="35">
-        <f t="shared" ca="1" si="52"/>
         <v>2.1728630344828019</v>
       </c>
       <c r="AB8" s="35">
@@ -35787,83 +35275,90 @@
         <v>2.8908198553733833E-2</v>
       </c>
       <c r="AC8" s="35">
+        <f t="shared" ca="1" si="52"/>
+        <v>359</v>
+      </c>
+      <c r="AD8" s="35">
         <f t="shared" ca="1" si="53"/>
-        <v>359</v>
-      </c>
-      <c r="AD8" s="35">
+        <v>0.16341180810173728</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" ref="AE8:AE12" si="74">AE7+7</f>
+        <v>24</v>
+      </c>
+      <c r="AF8" s="34">
         <f t="shared" ca="1" si="54"/>
-        <v>0.16341180810173728</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" ref="AE8:AE12" si="73">AE7+7</f>
-        <v>24</v>
-      </c>
-      <c r="AF8" s="34">
+        <v>0.5257794244205628</v>
+      </c>
+      <c r="AG8" s="34">
         <f t="shared" ca="1" si="55"/>
-        <v>0.5257794244205628</v>
-      </c>
-      <c r="AG8" s="34">
+        <v>1.1089535731565885</v>
+      </c>
+      <c r="AH8" s="34">
         <f t="shared" ca="1" si="56"/>
-        <v>1.1089535731565885</v>
-      </c>
-      <c r="AH8" s="34">
+        <v>0.54232711898540698</v>
+      </c>
+      <c r="AI8" s="34">
         <f t="shared" ca="1" si="57"/>
-        <v>0.54232711898540698</v>
-      </c>
-      <c r="AI8" s="34">
+        <v>0.92778118108544461</v>
+      </c>
+      <c r="AJ8" s="35">
         <f t="shared" ca="1" si="58"/>
-        <v>0.92778118108544461</v>
-      </c>
-      <c r="AJ8" s="35">
+        <v>0.4547255879743789</v>
+      </c>
+      <c r="AK8" s="35">
         <f t="shared" ca="1" si="59"/>
-        <v>0.4547255879743789</v>
-      </c>
-      <c r="AK8" s="35">
+        <v>1.0617251340265357</v>
+      </c>
+      <c r="AL8" s="35">
         <f t="shared" ca="1" si="60"/>
-        <v>1.0617251340265357</v>
-      </c>
-      <c r="AL8" s="35">
+        <v>0.52695478259478301</v>
+      </c>
+      <c r="AM8" s="35">
         <f t="shared" ca="1" si="61"/>
-        <v>0.52695478259478301</v>
-      </c>
-      <c r="AM8" s="35">
+        <v>0.92772157012810696</v>
+      </c>
+      <c r="AN8" s="34">
         <f t="shared" ca="1" si="62"/>
-        <v>0.92772157012810696</v>
-      </c>
-      <c r="AN8" s="34">
+        <v>7.0974651687565005E-2</v>
+      </c>
+      <c r="AO8" s="34">
         <f t="shared" ca="1" si="63"/>
-        <v>7.0974651687565005E-2</v>
-      </c>
-      <c r="AO8" s="34">
+        <v>4.1464144941471011</v>
+      </c>
+      <c r="AP8" s="34">
         <f t="shared" ca="1" si="64"/>
-        <v>4.1464144941471011</v>
-      </c>
-      <c r="AP8" s="34">
+        <v>0.84894477627791165</v>
+      </c>
+      <c r="AQ8" s="34">
         <f t="shared" ca="1" si="65"/>
-        <v>0.84894477627791165</v>
-      </c>
-      <c r="AQ8" s="34">
+        <v>0.88023693209038856</v>
+      </c>
+      <c r="AR8" s="35">
         <f t="shared" ca="1" si="66"/>
-        <v>0.88023693209038856</v>
-      </c>
-      <c r="AR8" s="35">
+        <v>5.7060292033933591E-2</v>
+      </c>
+      <c r="AS8" s="35">
         <f t="shared" ca="1" si="67"/>
-        <v>5.7060292033933591E-2</v>
-      </c>
-      <c r="AS8" s="35">
+        <v>3.6806285003368702</v>
+      </c>
+      <c r="AT8" s="35">
         <f t="shared" ca="1" si="68"/>
-        <v>3.6806285003368702</v>
-      </c>
-      <c r="AT8" s="35">
+        <v>0.82143341594532937</v>
+      </c>
+      <c r="AU8" s="35">
         <f t="shared" ca="1" si="69"/>
-        <v>0.82143341594532937</v>
-      </c>
-      <c r="AU8" s="35">
-        <f t="shared" ca="1" si="70"/>
         <v>0.87428923185459273</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AW8" s="2">
+        <f t="shared" ca="1" si="73"/>
+        <v>2.5512127318948106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>23</v>
       </c>
@@ -35938,20 +35433,20 @@
         <f t="shared" ca="1" si="45"/>
         <v>2.0038314827585992</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="34">
+        <f t="shared" ca="1" si="70"/>
+        <v>2.9841252314746822</v>
+      </c>
+      <c r="U9" s="35">
         <f t="shared" ca="1" si="46"/>
-        <v>1.6807077853681296E-2</v>
-      </c>
-      <c r="U9" s="35">
+        <v>359</v>
+      </c>
+      <c r="V9" s="35">
         <f t="shared" ca="1" si="47"/>
-        <v>359</v>
-      </c>
-      <c r="V9" s="35">
+        <v>0.17679126440927714</v>
+      </c>
+      <c r="W9" s="34">
         <f t="shared" ca="1" si="48"/>
-        <v>0.17679126440927714</v>
-      </c>
-      <c r="W9" s="34">
-        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="X9" s="34">
@@ -35959,15 +35454,15 @@
         <v>0</v>
       </c>
       <c r="Y9" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="Z9" s="34">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="AA9" s="35">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="51"/>
         <v>2.0998834482759037</v>
       </c>
       <c r="AB9" s="35">
@@ -35975,83 +35470,90 @@
         <v>7.8302088345127085E-2</v>
       </c>
       <c r="AC9" s="35">
+        <f t="shared" ca="1" si="52"/>
+        <v>359</v>
+      </c>
+      <c r="AD9" s="35">
         <f t="shared" ca="1" si="53"/>
-        <v>359</v>
-      </c>
-      <c r="AD9" s="35">
+        <v>0.18274695108722247</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="74"/>
+        <v>31</v>
+      </c>
+      <c r="AF9" s="34">
         <f t="shared" ca="1" si="54"/>
-        <v>0.18274695108722247</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="73"/>
-        <v>31</v>
-      </c>
-      <c r="AF9" s="34">
+        <v>0.48912200933247746</v>
+      </c>
+      <c r="AG9" s="34">
         <f t="shared" ca="1" si="55"/>
-        <v>0.48912200933247746</v>
-      </c>
-      <c r="AG9" s="34">
+        <v>0.95998599185430078</v>
+      </c>
+      <c r="AH9" s="34">
         <f t="shared" ca="1" si="56"/>
-        <v>0.95998599185430078</v>
-      </c>
-      <c r="AH9" s="34">
+        <v>0.42959869498833597</v>
+      </c>
+      <c r="AI9" s="34">
         <f t="shared" ca="1" si="57"/>
-        <v>0.42959869498833597</v>
-      </c>
-      <c r="AI9" s="34">
+        <v>0.92734104348121871</v>
+      </c>
+      <c r="AJ9" s="35">
         <f t="shared" ca="1" si="58"/>
-        <v>0.92734104348121871</v>
-      </c>
-      <c r="AJ9" s="35">
+        <v>0.434931270581427</v>
+      </c>
+      <c r="AK9" s="35">
         <f t="shared" ca="1" si="59"/>
-        <v>0.434931270581427</v>
-      </c>
-      <c r="AK9" s="35">
+        <v>0.92555257218932374</v>
+      </c>
+      <c r="AL9" s="35">
         <f t="shared" ca="1" si="60"/>
-        <v>0.92555257218932374</v>
-      </c>
-      <c r="AL9" s="35">
+        <v>0.42203911819056589</v>
+      </c>
+      <c r="AM9" s="35">
         <f t="shared" ca="1" si="61"/>
-        <v>0.42203911819056589</v>
-      </c>
-      <c r="AM9" s="35">
+        <v>0.92728779584716081</v>
+      </c>
+      <c r="AN9" s="34">
         <f t="shared" ca="1" si="62"/>
-        <v>0.92728779584716081</v>
-      </c>
-      <c r="AN9" s="34">
+        <v>4.3162686130248616E-2</v>
+      </c>
+      <c r="AO9" s="34">
         <f t="shared" ca="1" si="63"/>
-        <v>4.3162686130248616E-2</v>
-      </c>
-      <c r="AO9" s="34">
+        <v>4.7565708560402795</v>
+      </c>
+      <c r="AP9" s="34">
         <f t="shared" ca="1" si="64"/>
-        <v>4.7565708560402795</v>
-      </c>
-      <c r="AP9" s="34">
+        <v>0.72339177172774571</v>
+      </c>
+      <c r="AQ9" s="34">
         <f t="shared" ca="1" si="65"/>
-        <v>0.72339177172774571</v>
-      </c>
-      <c r="AQ9" s="34">
+        <v>0.88765356634275883</v>
+      </c>
+      <c r="AR9" s="35">
         <f t="shared" ca="1" si="66"/>
-        <v>0.88765356634275883</v>
-      </c>
-      <c r="AR9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="35">
         <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
-      <c r="AS9" s="35">
+      <c r="AT9" s="35">
         <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
-      <c r="AT9" s="35">
+      <c r="AU9" s="35">
         <f t="shared" ca="1" si="69"/>
         <v>0</v>
       </c>
-      <c r="AU9" s="35">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AW9" s="2">
+        <f t="shared" ca="1" si="73"/>
+        <v>1.6525032262782378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>28</v>
       </c>
@@ -36126,20 +35628,20 @@
         <f t="shared" ca="1" si="45"/>
         <v>2.4292346551724009</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="34">
+        <f t="shared" ca="1" si="70"/>
+        <v>2.8398574671818286</v>
+      </c>
+      <c r="U10" s="35">
         <f t="shared" ca="1" si="46"/>
-        <v>3.3539119184982091E-2</v>
-      </c>
-      <c r="U10" s="35">
+        <v>358</v>
+      </c>
+      <c r="V10" s="35">
         <f t="shared" ca="1" si="47"/>
-        <v>358</v>
-      </c>
-      <c r="V10" s="35">
+        <v>0.19068719213743843</v>
+      </c>
+      <c r="W10" s="34">
         <f t="shared" ca="1" si="48"/>
-        <v>0.19068719213743843</v>
-      </c>
-      <c r="W10" s="34">
-        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="X10" s="34">
@@ -36147,15 +35649,15 @@
         <v>0</v>
       </c>
       <c r="Y10" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="Z10" s="34">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="AA10" s="35">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="51"/>
         <v>2.4244748620689975</v>
       </c>
       <c r="AB10" s="35">
@@ -36163,83 +35665,90 @@
         <v>0.10207189520179138</v>
       </c>
       <c r="AC10" s="35">
+        <f t="shared" ca="1" si="52"/>
+        <v>359</v>
+      </c>
+      <c r="AD10" s="35">
         <f t="shared" ca="1" si="53"/>
-        <v>359</v>
-      </c>
-      <c r="AD10" s="35">
+        <v>0.19695372836688135</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="74"/>
+        <v>38</v>
+      </c>
+      <c r="AF10" s="34">
         <f t="shared" ca="1" si="54"/>
-        <v>0.19695372836688135</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="73"/>
-        <v>38</v>
-      </c>
-      <c r="AF10" s="34">
+        <v>0.49239088394022856</v>
+      </c>
+      <c r="AG10" s="34">
         <f t="shared" ca="1" si="55"/>
-        <v>0.49239088394022856</v>
-      </c>
-      <c r="AG10" s="34">
+        <v>0.83803693521867639</v>
+      </c>
+      <c r="AH10" s="34">
         <f t="shared" ca="1" si="56"/>
-        <v>0.83803693521867639</v>
-      </c>
-      <c r="AH10" s="34">
+        <v>0.35850910404524527</v>
+      </c>
+      <c r="AI10" s="34">
         <f t="shared" ca="1" si="57"/>
-        <v>0.35850910404524527</v>
-      </c>
-      <c r="AI10" s="34">
+        <v>0.92593244770104655</v>
+      </c>
+      <c r="AJ10" s="35">
         <f t="shared" ca="1" si="58"/>
-        <v>0.92593244770104655</v>
-      </c>
-      <c r="AJ10" s="35">
+        <v>0.42774642124917878</v>
+      </c>
+      <c r="AK10" s="35">
         <f t="shared" ca="1" si="59"/>
-        <v>0.42774642124917878</v>
-      </c>
-      <c r="AK10" s="35">
+        <v>0.8029904680164639</v>
+      </c>
+      <c r="AL10" s="35">
         <f t="shared" ca="1" si="60"/>
-        <v>0.8029904680164639</v>
-      </c>
-      <c r="AL10" s="35">
+        <v>0.35015282484442206</v>
+      </c>
+      <c r="AM10" s="35">
         <f t="shared" ca="1" si="61"/>
-        <v>0.35015282484442206</v>
-      </c>
-      <c r="AM10" s="35">
+        <v>0.92601336735169504</v>
+      </c>
+      <c r="AN10" s="34">
         <f t="shared" ca="1" si="62"/>
-        <v>0.92601336735169504</v>
-      </c>
-      <c r="AN10" s="34">
+        <v>4.3321639497769529E-2</v>
+      </c>
+      <c r="AO10" s="34">
         <f t="shared" ca="1" si="63"/>
-        <v>4.3321639497769529E-2</v>
-      </c>
-      <c r="AO10" s="34">
+        <v>4.5104938506916854</v>
+      </c>
+      <c r="AP10" s="34">
         <f t="shared" ca="1" si="64"/>
-        <v>4.5104938506916854</v>
-      </c>
-      <c r="AP10" s="34">
+        <v>0.68557030209032188</v>
+      </c>
+      <c r="AQ10" s="34">
         <f t="shared" ca="1" si="65"/>
-        <v>0.68557030209032188</v>
-      </c>
-      <c r="AQ10" s="34">
+        <v>0.89690510827981207</v>
+      </c>
+      <c r="AR10" s="35">
         <f t="shared" ca="1" si="66"/>
-        <v>0.89690510827981207</v>
-      </c>
-      <c r="AR10" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="35">
         <f t="shared" ca="1" si="67"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="35">
+      <c r="AT10" s="35">
         <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
-      <c r="AT10" s="35">
+      <c r="AU10" s="35">
         <f t="shared" ca="1" si="69"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="35">
-        <f t="shared" ca="1" si="70"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AW10" s="2">
+        <f t="shared" ca="1" si="73"/>
+        <v>2.0367732145149207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>33</v>
       </c>
@@ -36314,20 +35823,20 @@
         <f t="shared" ca="1" si="45"/>
         <v>2.3157362413792981</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="34">
+        <f t="shared" ca="1" si="70"/>
+        <v>2.7380287924753932</v>
+      </c>
+      <c r="U11" s="35">
         <f t="shared" ca="1" si="46"/>
-        <v>2.5744028298318788E-2</v>
-      </c>
-      <c r="U11" s="35">
+        <v>359</v>
+      </c>
+      <c r="V11" s="35">
         <f t="shared" ca="1" si="47"/>
-        <v>359</v>
-      </c>
-      <c r="V11" s="35">
+        <v>0.20190617785386369</v>
+      </c>
+      <c r="W11" s="34">
         <f t="shared" ca="1" si="48"/>
-        <v>0.20190617785386369</v>
-      </c>
-      <c r="W11" s="34">
-        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="X11" s="34">
@@ -36335,15 +35844,15 @@
         <v>0</v>
       </c>
       <c r="Y11" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="Z11" s="34">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="AA11" s="35">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="AB11" s="35">
@@ -36351,83 +35860,86 @@
         <v>0</v>
       </c>
       <c r="AC11" s="35">
+        <f t="shared" ca="1" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="35">
         <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="35">
-        <f t="shared" ca="1" si="54"/>
-        <v>0</v>
-      </c>
       <c r="AE11" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>45</v>
       </c>
       <c r="AF11" s="34">
+        <f t="shared" ca="1" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="34">
+        <f t="shared" ref="AG11:AG12" ca="1" si="75">INDIRECT("'"&amp;AG$1&amp;"'!"&amp;"Z"&amp;$AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="34">
         <f t="shared" ca="1" si="56"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="34">
-        <f t="shared" ref="AG11:AG12" ca="1" si="74">INDIRECT("'"&amp;AG$1&amp;"'!"&amp;"Z"&amp;$AE11)</f>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="34">
-        <f t="shared" ca="1" si="57"/>
-        <v>0</v>
-      </c>
       <c r="AI11" s="34">
+        <f t="shared" ca="1" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="35">
+        <f t="shared" ca="1" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="35">
+        <f t="shared" ref="AK11:AK12" ca="1" si="76">INDIRECT("'"&amp;AK$1&amp;"'!"&amp;"Z"&amp;$AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="35">
+        <f t="shared" ca="1" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="35">
+        <f t="shared" ca="1" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="34">
         <f t="shared" ca="1" si="63"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="35">
-        <f t="shared" ca="1" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="35">
-        <f t="shared" ref="AK11:AK12" ca="1" si="75">INDIRECT("'"&amp;AK$1&amp;"'!"&amp;"Z"&amp;$AE11)</f>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="35">
-        <f t="shared" ca="1" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="35">
-        <f t="shared" ca="1" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="34">
+      <c r="AO11" s="34">
+        <f t="shared" ref="AO11:AO12" ca="1" si="77">INDIRECT("'"&amp;AO$1&amp;"'!"&amp;"Z"&amp;$AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="34">
         <f t="shared" ca="1" si="64"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="34">
-        <f t="shared" ref="AO11:AO12" ca="1" si="76">INDIRECT("'"&amp;AO$1&amp;"'!"&amp;"Z"&amp;$AE11)</f>
-        <v>0</v>
-      </c>
-      <c r="AP11" s="34">
-        <f t="shared" ca="1" si="65"/>
-        <v>0</v>
-      </c>
       <c r="AQ11" s="34">
-        <f t="shared" ref="AQ11:AQ12" ca="1" si="77">INDIRECT("'"&amp;AQ$1&amp;"'!"&amp;"AB"&amp;$AE11)</f>
+        <f t="shared" ref="AQ11:AQ12" ca="1" si="78">INDIRECT("'"&amp;AQ$1&amp;"'!"&amp;"AB"&amp;$AE11)</f>
         <v>0</v>
       </c>
       <c r="AR11" s="35">
+        <f t="shared" ca="1" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="35">
+        <f t="shared" ref="AS11:AS12" ca="1" si="79">INDIRECT("'"&amp;AS$1&amp;"'!"&amp;"Z"&amp;$AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="35">
         <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
-      <c r="AS11" s="35">
-        <f t="shared" ref="AS11:AS12" ca="1" si="78">INDIRECT("'"&amp;AS$1&amp;"'!"&amp;"Z"&amp;$AE11)</f>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="35">
-        <f t="shared" ca="1" si="69"/>
-        <v>0</v>
-      </c>
       <c r="AU11" s="35">
-        <f t="shared" ref="AU11:AU12" ca="1" si="79">INDIRECT("'"&amp;AU$1&amp;"'!"&amp;"AB"&amp;$AE11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AU11:AU12" ca="1" si="80">INDIRECT("'"&amp;AU$1&amp;"'!"&amp;"AB"&amp;$AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>38</v>
       </c>
@@ -36502,20 +36014,20 @@
         <f t="shared" ca="1" si="45"/>
         <v>2.2369820344827005</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12" s="34">
+        <f t="shared" ca="1" si="70"/>
+        <v>2.6210419692951126</v>
+      </c>
+      <c r="U12" s="35">
         <f t="shared" ca="1" si="46"/>
-        <v>5.3986400675834822E-2</v>
-      </c>
-      <c r="U12" s="35">
+        <v>359</v>
+      </c>
+      <c r="V12" s="35">
         <f t="shared" ca="1" si="47"/>
-        <v>359</v>
-      </c>
-      <c r="V12" s="35">
+        <v>0.21236167138981588</v>
+      </c>
+      <c r="W12" s="34">
         <f t="shared" ca="1" si="48"/>
-        <v>0.21236167138981588</v>
-      </c>
-      <c r="W12" s="34">
-        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="X12" s="34">
@@ -36523,15 +36035,15 @@
         <v>0</v>
       </c>
       <c r="Y12" s="34">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="Z12" s="34">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="AA12" s="35">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="AB12" s="35">
@@ -36539,92 +36051,95 @@
         <v>0</v>
       </c>
       <c r="AC12" s="35">
+        <f t="shared" ca="1" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="35">
         <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="35">
-        <f t="shared" ca="1" si="54"/>
-        <v>0</v>
-      </c>
       <c r="AE12" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>52</v>
       </c>
       <c r="AF12" s="34">
+        <f t="shared" ca="1" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="34">
+        <f t="shared" ca="1" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="34">
         <f t="shared" ca="1" si="56"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="34">
-        <f t="shared" ca="1" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="34">
-        <f t="shared" ca="1" si="57"/>
-        <v>0</v>
-      </c>
       <c r="AI12" s="34">
+        <f t="shared" ca="1" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="35">
+        <f t="shared" ca="1" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="35">
+        <f t="shared" ca="1" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="35">
+        <f t="shared" ca="1" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="35">
+        <f t="shared" ca="1" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="34">
         <f t="shared" ca="1" si="63"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="35">
-        <f t="shared" ca="1" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="35">
-        <f t="shared" ca="1" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="35">
-        <f t="shared" ca="1" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="35">
-        <f t="shared" ca="1" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="34">
+      <c r="AO12" s="34">
+        <f t="shared" ca="1" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="34">
         <f t="shared" ca="1" si="64"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="34">
-        <f t="shared" ca="1" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AP12" s="34">
-        <f t="shared" ca="1" si="65"/>
-        <v>0</v>
-      </c>
       <c r="AQ12" s="34">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="78"/>
         <v>0</v>
       </c>
       <c r="AR12" s="35">
+        <f t="shared" ca="1" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="35">
+        <f t="shared" ca="1" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="35">
         <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="35">
-        <f t="shared" ca="1" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="35">
-        <f t="shared" ca="1" si="69"/>
-        <v>0</v>
-      </c>
       <c r="AU12" s="35">
-        <f t="shared" ca="1" si="79"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -48331,7 +47846,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1048576"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
